--- a/natmiOut/OldD0/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.55404081988228</v>
+        <v>14.21340333333333</v>
       </c>
       <c r="H2">
-        <v>8.55404081988228</v>
+        <v>42.64021</v>
       </c>
       <c r="I2">
-        <v>0.04754165877483203</v>
+        <v>0.07497543485230342</v>
       </c>
       <c r="J2">
-        <v>0.04754165877483203</v>
+        <v>0.07497543485230343</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N2">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q2">
-        <v>146.1554573273542</v>
+        <v>299.8934484383378</v>
       </c>
       <c r="R2">
-        <v>146.1554573273542</v>
+        <v>2699.04103594504</v>
       </c>
       <c r="S2">
-        <v>0.01194632530316162</v>
+        <v>0.02187210529729871</v>
       </c>
       <c r="T2">
-        <v>0.01194632530316162</v>
+        <v>0.02187210529729872</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.55404081988228</v>
+        <v>14.21340333333333</v>
       </c>
       <c r="H3">
-        <v>8.55404081988228</v>
+        <v>42.64021</v>
       </c>
       <c r="I3">
-        <v>0.04754165877483203</v>
+        <v>0.07497543485230342</v>
       </c>
       <c r="J3">
-        <v>0.04754165877483203</v>
+        <v>0.07497543485230343</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N3">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q3">
-        <v>304.7181527049888</v>
+        <v>509.1161147295255</v>
       </c>
       <c r="R3">
-        <v>304.7181527049888</v>
+        <v>4582.045032565729</v>
       </c>
       <c r="S3">
-        <v>0.02490678243946058</v>
+        <v>0.03713132556880579</v>
       </c>
       <c r="T3">
-        <v>0.02490678243946058</v>
+        <v>0.0371313255688058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.55404081988228</v>
+        <v>14.21340333333333</v>
       </c>
       <c r="H4">
-        <v>8.55404081988228</v>
+        <v>42.64021</v>
       </c>
       <c r="I4">
-        <v>0.04754165877483203</v>
+        <v>0.07497543485230342</v>
       </c>
       <c r="J4">
-        <v>0.04754165877483203</v>
+        <v>0.07497543485230343</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N4">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q4">
-        <v>130.7674137976097</v>
+        <v>218.9958071609889</v>
       </c>
       <c r="R4">
-        <v>130.7674137976097</v>
+        <v>1970.9622644489</v>
       </c>
       <c r="S4">
-        <v>0.01068855103220983</v>
+        <v>0.01597200398619892</v>
       </c>
       <c r="T4">
-        <v>0.01068855103220983</v>
+        <v>0.01597200398619892</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.9116352036407</v>
+        <v>29.428335</v>
       </c>
       <c r="H5">
-        <v>28.9116352036407</v>
+        <v>88.285005</v>
       </c>
       <c r="I5">
-        <v>0.1606851223200994</v>
+        <v>0.1552339127976335</v>
       </c>
       <c r="J5">
-        <v>0.1606851223200994</v>
+        <v>0.1552339127976336</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N5">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q5">
-        <v>493.9879706264823</v>
+        <v>620.9184850366801</v>
       </c>
       <c r="R5">
-        <v>493.9879706264823</v>
+        <v>5588.266365330121</v>
       </c>
       <c r="S5">
-        <v>0.04037715115717491</v>
+        <v>0.04528539905250333</v>
       </c>
       <c r="T5">
-        <v>0.04037715115717491</v>
+        <v>0.04528539905250335</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.9116352036407</v>
+        <v>29.428335</v>
       </c>
       <c r="H6">
-        <v>28.9116352036407</v>
+        <v>88.285005</v>
       </c>
       <c r="I6">
-        <v>0.1606851223200994</v>
+        <v>0.1552339127976335</v>
       </c>
       <c r="J6">
-        <v>0.1606851223200994</v>
+        <v>0.1552339127976336</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N6">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q6">
-        <v>1029.910922386171</v>
+        <v>1054.106411166285</v>
       </c>
       <c r="R6">
-        <v>1029.910922386171</v>
+        <v>9486.957700496565</v>
       </c>
       <c r="S6">
-        <v>0.08418194665524618</v>
+        <v>0.07687906001163332</v>
       </c>
       <c r="T6">
-        <v>0.08418194665524618</v>
+        <v>0.07687906001163335</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.9116352036407</v>
+        <v>29.428335</v>
       </c>
       <c r="H7">
-        <v>28.9116352036407</v>
+        <v>88.285005</v>
       </c>
       <c r="I7">
-        <v>0.1606851223200994</v>
+        <v>0.1552339127976335</v>
       </c>
       <c r="J7">
-        <v>0.1606851223200994</v>
+        <v>0.1552339127976336</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N7">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q7">
-        <v>441.9782233739741</v>
+        <v>453.42285908505</v>
       </c>
       <c r="R7">
-        <v>441.9782233739741</v>
+        <v>4080.80573176545</v>
       </c>
       <c r="S7">
-        <v>0.03612602450767829</v>
+        <v>0.03306945373349689</v>
       </c>
       <c r="T7">
-        <v>0.03612602450767829</v>
+        <v>0.03306945373349691</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>142.461592824965</v>
+        <v>145.9323983333333</v>
       </c>
       <c r="H8">
-        <v>142.461592824965</v>
+        <v>437.797195</v>
       </c>
       <c r="I8">
-        <v>0.7917732189050686</v>
+        <v>0.7697906523500631</v>
       </c>
       <c r="J8">
-        <v>0.7917732189050686</v>
+        <v>0.7697906523500631</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N8">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q8">
-        <v>2434.117359192427</v>
+        <v>3079.077484026965</v>
       </c>
       <c r="R8">
-        <v>2434.117359192427</v>
+        <v>27711.69735624268</v>
       </c>
       <c r="S8">
-        <v>0.1989577285085961</v>
+        <v>0.2245661160651417</v>
       </c>
       <c r="T8">
-        <v>0.1989577285085961</v>
+        <v>0.2245661160651418</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>142.461592824965</v>
+        <v>145.9323983333333</v>
       </c>
       <c r="H9">
-        <v>142.461592824965</v>
+        <v>437.797195</v>
       </c>
       <c r="I9">
-        <v>0.7917732189050686</v>
+        <v>0.7697906523500631</v>
       </c>
       <c r="J9">
-        <v>0.7917732189050686</v>
+        <v>0.7697906523500631</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N9">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q9">
-        <v>5074.868627717285</v>
+        <v>5227.216445648004</v>
       </c>
       <c r="R9">
-        <v>5074.868627717285</v>
+        <v>47044.94801083203</v>
       </c>
       <c r="S9">
-        <v>0.4148051164571427</v>
+        <v>0.3812361660661371</v>
       </c>
       <c r="T9">
-        <v>0.4148051164571427</v>
+        <v>0.3812361660661371</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>142.461592824965</v>
+        <v>145.9323983333333</v>
       </c>
       <c r="H10">
-        <v>142.461592824965</v>
+        <v>437.797195</v>
       </c>
       <c r="I10">
-        <v>0.7917732189050686</v>
+        <v>0.7697906523500631</v>
       </c>
       <c r="J10">
-        <v>0.7917732189050686</v>
+        <v>0.7697906523500631</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N10">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q10">
-        <v>2177.840210431116</v>
+        <v>2248.482127359172</v>
       </c>
       <c r="R10">
-        <v>2177.840210431116</v>
+        <v>20236.33914623255</v>
       </c>
       <c r="S10">
-        <v>0.1780103739393298</v>
+        <v>0.1639883702187843</v>
       </c>
       <c r="T10">
-        <v>0.1780103739393298</v>
+        <v>0.1639883702187843</v>
       </c>
     </row>
   </sheetData>
